--- a/doc/20_基本設計/01_画面系/画面遷移図.xlsx
+++ b/doc/20_基本設計/01_画面系/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D7242ACF-2964-4BD4-A721-D4CF33338740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E744A6BC-C426-47B6-9111-F39363DC685F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D7242ACF-2964-4BD4-A721-D4CF33338740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56917D6B-77C2-403D-984F-6C130A7E586D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8285698-46DE-4A65-BF92-0EF996685C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -115,12 +115,24 @@
     <t>李融融</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承認完了一覧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +197,21 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -480,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,13 +558,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -548,6 +575,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,15 +758,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>350915</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>137645</xdr:rowOff>
+      <xdr:colOff>213755</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>452495</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>506</xdr:rowOff>
+      <xdr:colOff>315335</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>107186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -750,8 +781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9060575" y="11514305"/>
-          <a:ext cx="2616180" cy="563901"/>
+          <a:off x="6309755" y="9205445"/>
+          <a:ext cx="1930380" cy="563901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -920,89 +951,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336874</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>435485</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>106617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDC76B3-F52E-4880-9540-85CBC58FE92D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9046534" y="9993364"/>
-          <a:ext cx="2613211" cy="613613"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>写真登録画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>131333</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>150331</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>336874</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>168055</xdr:rowOff>
     </xdr:to>
@@ -1016,14 +972,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3179333" y="9461971"/>
-          <a:ext cx="3253541" cy="17724"/>
+          <a:off x="3179333" y="9471660"/>
+          <a:ext cx="1636507" cy="8035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1050,144 +1006,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>220981</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>91701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>512619</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>73557</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3CA2FF-01FC-4A1A-B061-4F6C0015F9AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5097781" y="9052821"/>
-          <a:ext cx="1510838" cy="332376"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>写真</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>234702</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>194624</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>167738</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2735F67-74C0-4E88-B95B-24CA5D1EE9C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11458962" y="9971084"/>
-          <a:ext cx="1115127" cy="346494"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>確定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1458,66 +1276,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>435485</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E220AB-F14C-476E-B167-F2ACB7A51ECC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11659745" y="10322684"/>
-          <a:ext cx="1282479" cy="5126520"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>131333</xdr:colOff>
       <xdr:row>48</xdr:row>
@@ -1525,9 +1283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>350915</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>69076</xdr:rowOff>
+      <xdr:colOff>213755</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>496</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1546,7 +1304,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3267582" cy="1478361"/>
+          <a:ext cx="3130422" cy="7701"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1581,15 +1339,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>498764</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
+      <xdr:colOff>521624</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>512618</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>535478</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153786</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1604,8 +1362,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12561224" y="15449204"/>
-          <a:ext cx="852054" cy="622762"/>
+          <a:off x="9056024" y="10244744"/>
+          <a:ext cx="623454" cy="622762"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -1660,76 +1418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>452495</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>69076</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548639</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0D6C94-B944-405D-88BA-DF75D0476DE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11676755" y="11796256"/>
-          <a:ext cx="1265469" cy="3652948"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85897</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>64984</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146857</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>26884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1744,7 +1442,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5364479" y="10607040"/>
+          <a:off x="4815839" y="9166860"/>
           <a:ext cx="1427018" cy="346924"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1791,14 +1489,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>332509</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>221673</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>431120</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>73979</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>112079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1813,8 +1511,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9042169" y="12604173"/>
-          <a:ext cx="2613211" cy="599066"/>
+          <a:off x="6428509" y="10226733"/>
+          <a:ext cx="1927411" cy="599066"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1865,15 +1563,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290945</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>336665</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>389556</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>4706</xdr:rowOff>
+      <xdr:colOff>435276</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>42806</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1888,8 +1586,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9000605" y="13632180"/>
-          <a:ext cx="2613211" cy="553346"/>
+          <a:off x="6432665" y="11254740"/>
+          <a:ext cx="1927411" cy="553346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1947,8 +1645,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>332509</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>124966</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>163066</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1967,7 +1665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3249176" cy="2585811"/>
+          <a:ext cx="3249176" cy="1046571"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2008,9 +1706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>290945</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>78553</xdr:rowOff>
+      <xdr:colOff>336665</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2029,7 +1727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3207612" cy="3590958"/>
+          <a:ext cx="3253332" cy="2051718"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2063,16 +1761,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582584</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>111529</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597824</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>4849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180802</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>101006</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196042</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>169586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2087,7 +1785,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5459384" y="11526289"/>
+          <a:off x="4865024" y="10192789"/>
           <a:ext cx="1427018" cy="339997"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2132,16 +1830,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>491837</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>598517</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>90055</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>35196</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196735</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>126636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2156,7 +1854,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5368637" y="12519660"/>
+          <a:off x="4865717" y="11209020"/>
           <a:ext cx="1427018" cy="332376"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2193,330 +1891,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>承認待ち一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431120</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>147826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41564</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{135531AE-0BC5-49CE-8EF5-AEF87B97162B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="3"/>
-          <a:endCxn id="31" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11655380" y="12926566"/>
-          <a:ext cx="1286844" cy="2522638"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>397176</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>86174</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>49184</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>49184</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6965DCCD-124B-4B18-A66D-4DD536A17901}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8321976" y="13078274"/>
-          <a:ext cx="871208" cy="1540350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>332509</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609436</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>97806</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="四角形: 角を丸くする 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43342CEB-8A5B-4623-87FC-8478E8A71C14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11556769" y="11326092"/>
-          <a:ext cx="1115127" cy="323634"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>確定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>263237</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>193964</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>540164</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>167079</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="四角形: 角を丸くする 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CCAAC9-350B-40C7-8842-EC33FA9D585F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487497" y="12431684"/>
-          <a:ext cx="1115127" cy="338875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>確定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>263237</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>96981</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>540164</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>70096</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1563F6D-4240-48E8-9FDA-F735BE8F913D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11487497" y="13401501"/>
-          <a:ext cx="1115127" cy="323635"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>確定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2689,14 +2063,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>48073</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2714,7 +2088,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4792980" y="14257020"/>
+          <a:off x="4808220" y="12679680"/>
           <a:ext cx="1645920" cy="9973"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2747,15 +2121,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2770,7 +2144,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4785360" y="13083540"/>
+          <a:off x="4800600" y="11529060"/>
           <a:ext cx="7620" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2798,14 +2172,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>441511</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:colOff>456751</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>149486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2821,7 +2195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="13990320"/>
+          <a:off x="6454140" y="12412980"/>
           <a:ext cx="1927411" cy="553346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2872,92 +2246,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>253538</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>12336</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="四角形: 角を丸くする 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C099278-E802-4E22-96FF-3B8883D9E6E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5532120" y="13723620"/>
-          <a:ext cx="1427018" cy="332376"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>承認完了一覧</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 50">
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3417CF58-3752-4C2B-BC16-EDAA83246FDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D42BF0-0F2C-4350-B259-E27E681436BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2965,13 +2270,18 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="14226540"/>
-          <a:ext cx="815340" cy="0"/>
+          <a:off x="8359140" y="10538460"/>
+          <a:ext cx="678180" cy="7620"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575"/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2992,55 +2302,58 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426271</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>435276</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>86173</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B68263-98CA-4CF0-A83B-9164C97E3638}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1731B21C-5B06-412D-9FC2-4E20BCC4E850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="53" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2446020" y="7368540"/>
-          <a:ext cx="7620" cy="1790700"/>
+        <a:xfrm flipH="1">
+          <a:off x="8351071" y="11531413"/>
+          <a:ext cx="9005" cy="2247900"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12354470"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="dk1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3049,65 +2362,148 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2031325" cy="435697"/>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426271</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFDFA28-9861-4FA7-A320-964ECBC8F457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AAD8F4-7FDF-A073-C852-80130241220B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2537460" y="7757160"/>
-          <a:ext cx="2031325" cy="435697"/>
+          <a:off x="6423660" y="13502640"/>
+          <a:ext cx="1927411" cy="553346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タスク詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426271</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>48073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456751</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>86173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F316AC-78AF-4CBD-92E7-AA48417E34FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="3"/>
+          <a:endCxn id="53" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8351071" y="12689653"/>
+          <a:ext cx="30480" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3575000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ユーザーログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3409,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB572016-5483-4388-A0B4-FC11225F6DD9}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3439,25 +2835,25 @@
       <c r="A2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4304,9 +3700,6 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P48" s="8"/>
     </row>
     <row r="49" spans="1:16">
@@ -4324,7 +3717,9 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="P49" s="8"/>
     </row>
     <row r="50" spans="1:16">
@@ -4414,7 +3809,9 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
+      <c r="O54" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="P54" s="8"/>
     </row>
     <row r="55" spans="1:16">
@@ -4522,7 +3919,9 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="O60" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="P60" s="8"/>
     </row>
     <row r="61" spans="1:16">
@@ -4615,7 +4014,7 @@
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" ht="22.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4624,8 +4023,10 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="35"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -4643,12 +4044,13 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="O67" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="P67" s="8"/>
     </row>
     <row r="68" spans="1:16">
@@ -4958,7 +4360,8 @@
       <c r="P84" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="I66:J66"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L16:M16"/>
